--- a/TDN/Y3/Machine Learning/Data Analysis/datasets/cholesterol.xlsx
+++ b/TDN/Y3/Machine Learning/Data Analysis/datasets/cholesterol.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Arch\home\endy\CTin\TDN\Y3\Machine Learning\Data Analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Arch\home\endy\CTin\TDN\Y3\Machine Learning\Data Analysis\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E172D25D-1899-451E-A299-CEB3BB00375F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D9A8ADD-B12A-46EA-B821-0D50120998FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-118" yWindow="-118" windowWidth="25370" windowHeight="14374" xr2:uid="{CE8CEF4F-C738-4DB4-953E-9867E9D2B27B}"/>
+    <workbookView xWindow="-118" yWindow="-118" windowWidth="25370" windowHeight="14374" activeTab="1" xr2:uid="{CE8CEF4F-C738-4DB4-953E-9867E9D2B27B}"/>
   </bookViews>
   <sheets>
     <sheet name="cholesterol" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="30">
   <si>
     <t>Age</t>
   </si>
@@ -145,6 +145,9 @@
   <si>
     <t>Weight</t>
   </si>
+  <si>
+    <t>Prediction Model</t>
+  </si>
 </sst>
 </file>
 
@@ -179,8 +182,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -723,10 +729,10 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>gestation!$B$2:$B$17</c:f>
+              <c:f>gestation!$B$2:$B$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>34.700000000000003</c:v>
                 </c:pt>
@@ -767,12 +773,15 @@
                   <c:v>39.700000000000003</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>39.700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>41.1</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>38</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>38.700000000000003</c:v>
                 </c:pt>
               </c:numCache>
@@ -780,10 +789,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>gestation!$C$2:$C$17</c:f>
+              <c:f>gestation!$C$2:$C$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>1895</c:v>
                 </c:pt>
@@ -824,12 +833,15 @@
                   <c:v>3685</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>3345</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>3260</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>2680</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>2005</c:v>
                 </c:pt>
               </c:numCache>
@@ -2179,16 +2191,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>5541</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>186969</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>665017</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>5874</xdr:rowOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>33881</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2218,8 +2230,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="7315200" y="0"/>
-          <a:ext cx="6650181" cy="4976885"/>
+          <a:off x="4307047" y="3439489"/>
+          <a:ext cx="4658823" cy="3482080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2243,13 +2255,13 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>665017</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>8312</xdr:rowOff>
+      <xdr:rowOff>186735</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2576,7 +2588,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84B379E4-7E18-4CBA-B71F-6E6A20A673A3}">
   <dimension ref="A1:C42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="E23" sqref="E23:E41"/>
     </sheetView>
   </sheetViews>
@@ -2940,10 +2952,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{632B92B6-0A42-4CDD-8910-EB7B02A5F5D0}">
-  <dimension ref="A1:E41"/>
+  <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="103" zoomScaleNormal="103" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39:F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
@@ -3065,243 +3077,258 @@
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B15">
-        <v>41.1</v>
+        <v>39.700000000000003</v>
       </c>
       <c r="C15">
-        <v>3260</v>
+        <v>3345</v>
       </c>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B16">
-        <v>38</v>
+        <v>41.1</v>
       </c>
       <c r="C16">
-        <v>2680</v>
+        <v>3260</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B17">
+        <v>38</v>
+      </c>
+      <c r="C17">
+        <v>2680</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B18">
         <v>38.700000000000003</v>
       </c>
-      <c r="C17">
+      <c r="C18">
         <v>2005</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B18" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
         <v>25</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C19" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>2</v>
-      </c>
-      <c r="B20">
-        <f>COUNT(B2:B17)</f>
-        <v>16</v>
-      </c>
-      <c r="C20">
-        <f>COUNT(C2:C17)</f>
-        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B21">
-        <f>AVERAGE(B2:B17)</f>
-        <v>38.274999999999999</v>
+        <f>COUNT(B2:B19)</f>
+        <v>17</v>
       </c>
       <c r="C21">
-        <f>AVERAGE(C2:C17)</f>
-        <v>2874.3125</v>
+        <f>COUNT(C2:C19)</f>
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>16</v>
-      </c>
-      <c r="B22" cm="1">
-        <f t="array" ref="B22">SUM((B$2:B$17 - B$21)^2)/(B20 - 1)</f>
-        <v>10.500666666666664</v>
-      </c>
-      <c r="C22" cm="1">
-        <f t="array" ref="C22">SUM((C$2:C$17 - C$21)^2)/(C20 - 1)</f>
-        <v>503943.02916666667</v>
+        <v>10</v>
+      </c>
+      <c r="B22">
+        <f>AVERAGE(B2:B18)</f>
+        <v>38.358823529411765</v>
+      </c>
+      <c r="C22">
+        <f>AVERAGE(C2:C18)</f>
+        <v>2902</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>15</v>
-      </c>
-      <c r="B23">
-        <f>SQRT(B22)</f>
-        <v>3.2404732164711167</v>
-      </c>
-      <c r="C23">
-        <f>SQRT(C22)</f>
-        <v>709.88944855284808</v>
+        <v>16</v>
+      </c>
+      <c r="B23" cm="1">
+        <f t="array" ref="B23">SUM((B$2:B$18 - B$22)^2)/(B21 - 1)</f>
+        <v>9.9638235294117603</v>
+      </c>
+      <c r="C23" cm="1">
+        <f t="array" ref="C23">SUM((C$2:C$18 - C$22)^2)/(C21 - 1)</f>
+        <v>485478.75</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>14</v>
-      </c>
-      <c r="B24" cm="1">
-        <f t="array" ref="B24">SUM(($B$2:$B$17 - $B$21)*($C$2:$C$17 - $C$21))/(B20-1)</f>
-        <v>1875.8083333333329</v>
+        <v>15</v>
+      </c>
+      <c r="B24">
+        <f>SQRT(B23)</f>
+        <v>3.1565524753141299</v>
+      </c>
+      <c r="C24">
+        <f>SQRT(C23)</f>
+        <v>696.76305154621969</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25" cm="1">
+        <f t="array" ref="B25">SUM(($B$2:$B$18 - $B$22)*($C$2:$C$18 - $C$22))/(B21-1)</f>
+        <v>1798.0249999999994</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
         <v>13</v>
       </c>
-      <c r="B25">
-        <f>B24/(B23*C23)</f>
-        <v>0.81543491614040942</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>17</v>
-      </c>
-      <c r="B27">
-        <f>SQRT((1-B25^2)/(B20-2))</f>
-        <v>0.15470384092080203</v>
+      <c r="B26">
+        <f>B25/(B24*C24)</f>
+        <v>0.81751851989426605</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B28">
-        <f>B25*SQRT((B20-2)/(1-B25^2))</f>
-        <v>5.2709416345897795</v>
+        <f>SQRT((1-B26^2)/(B21-2))</f>
+        <v>0.1486973368131585</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B29">
-        <f>LN((1+B25)/(1-B25))/2</f>
-        <v>1.1430390909445489</v>
+        <f>B26*SQRT((B21-2)/(1-B26^2))</f>
+        <v>5.4978692787315762</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B30">
-        <f>1/SQRT(B20-3)</f>
-        <v>0.27735009811261457</v>
+        <f>LN((1+B26)/(1-B26))/2</f>
+        <v>1.1492893550591201</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
+        <v>18</v>
+      </c>
+      <c r="B31">
+        <f>1/SQRT(B21-3)</f>
+        <v>0.2672612419124244</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
         <v>3</v>
       </c>
-      <c r="B31">
-        <f>B29/B30</f>
-        <v>4.1212860522603174</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
+      <c r="B32">
+        <f>B30/B31</f>
+        <v>4.3002470048976154</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
         <v>11</v>
       </c>
-      <c r="B33" cm="1">
-        <f t="array" ref="B33">SUM((B2:B17-B21)^2)</f>
-        <v>157.50999999999996</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
+      <c r="B34">
+        <f>B23*(B21-1)</f>
+        <v>159.42117647058816</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
         <v>12</v>
       </c>
-      <c r="B34" cm="1">
-        <f t="array" ref="B34">SUM((B2:B17-B21)*(C2:C17-C21))</f>
-        <v>28137.124999999993</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
+      <c r="B35">
+        <f>B25*(B21-1)</f>
+        <v>28768.399999999991</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
         <v>21</v>
       </c>
-      <c r="B35">
-        <f>B34/B33</f>
-        <v>178.63707066218018</v>
-      </c>
-      <c r="D35" t="s">
+      <c r="B36">
+        <f>B35/B34</f>
+        <v>180.45532367092719</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>22</v>
+      </c>
+      <c r="B37">
+        <f>C22-B36*B22</f>
+        <v>-4020.0539156359773</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>6</v>
+      </c>
+      <c r="B39" cm="1">
+        <f t="array" ref="B39">SUM((B37+B36*B2:B18-C22)^2)</f>
+        <v>5191410.9334947011</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F39" s="1"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>8</v>
+      </c>
+      <c r="B40" cm="1">
+        <f t="array" ref="B40">SUM((C2:C18-B37-B36*B2:B18)^2)</f>
+        <v>2576249.0665052989</v>
+      </c>
+      <c r="C40" t="s">
+        <v>5</v>
+      </c>
+      <c r="E40" t="s">
         <v>27</v>
       </c>
-      <c r="E35" t="s">
+      <c r="F40" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>22</v>
-      </c>
-      <c r="B36">
-        <f>C21-B35*B21</f>
-        <v>-3963.0213795949458</v>
-      </c>
-      <c r="D36">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>7</v>
+      </c>
+      <c r="B41" cm="1">
+        <f t="array" ref="B41">SUM((C2:C18-C22)^2)</f>
+        <v>7767660</v>
+      </c>
+      <c r="C41" t="s">
+        <v>4</v>
+      </c>
+      <c r="E41">
         <v>40</v>
       </c>
-      <c r="E36">
-        <f>B35*D36+B36</f>
-        <v>3182.4614468922609</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>6</v>
-      </c>
-      <c r="B38" cm="1">
-        <f t="array" ref="B38">SUM((B36+B35*B2:B17-C21)^2)</f>
-        <v>5026333.5868555931</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>8</v>
-      </c>
-      <c r="B39" cm="1">
-        <f t="array" ref="B39">SUM((C2:C17-B36-B35*B2:B17)^2)</f>
-        <v>2532811.8506444045</v>
-      </c>
-      <c r="C39" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>7</v>
-      </c>
-      <c r="B40" cm="1">
-        <f t="array" ref="B40">SUM((C2:C17-C21)^2)</f>
-        <v>7559145.4375</v>
-      </c>
-      <c r="C40" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
+      <c r="F41">
+        <f>B36*E41+B37</f>
+        <v>3198.1590312011103</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
         <v>9</v>
       </c>
-      <c r="B41">
-        <f>B38/B40</f>
-        <v>0.66493410246091633</v>
+      <c r="B42">
+        <f>B39/B41</f>
+        <v>0.66833653037011165</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E39:F39"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/TDN/Y3/Machine Learning/Data Analysis/datasets/cholesterol.xlsx
+++ b/TDN/Y3/Machine Learning/Data Analysis/datasets/cholesterol.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Arch\home\endy\CTin\TDN\Y3\Machine Learning\Data Analysis\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D9A8ADD-B12A-46EA-B821-0D50120998FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{357EFA72-B417-4CDD-8005-0E1922C6F78B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-118" yWindow="-118" windowWidth="25370" windowHeight="14374" activeTab="1" xr2:uid="{CE8CEF4F-C738-4DB4-953E-9867E9D2B27B}"/>
+    <workbookView xWindow="-118" yWindow="-118" windowWidth="25370" windowHeight="14374" activeTab="2" xr2:uid="{CE8CEF4F-C738-4DB4-953E-9867E9D2B27B}"/>
   </bookViews>
   <sheets>
     <sheet name="cholesterol" sheetId="1" r:id="rId1"/>
     <sheet name="gestation" sheetId="2" r:id="rId2"/>
+    <sheet name="gestation (2)" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -57,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="37">
   <si>
     <t>Age</t>
   </si>
@@ -147,6 +148,27 @@
   </si>
   <si>
     <t>Prediction Model</t>
+  </si>
+  <si>
+    <t>y-intercept</t>
+  </si>
+  <si>
+    <t>slope</t>
+  </si>
+  <si>
+    <t>tbc</t>
+  </si>
+  <si>
+    <t>phương sai</t>
+  </si>
+  <si>
+    <t>độ lệch chuẩn</t>
+  </si>
+  <si>
+    <t>hiệp phương sai</t>
+  </si>
+  <si>
+    <t>độ tương quan</t>
   </si>
 </sst>
 </file>
@@ -1034,6 +1056,644 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="vi-VN"/>
+              <a:t>Biểu đồ phân tán thể hiện mối quan hệ giữa số bài báo đã công bố</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="vi-VN" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="vi-VN"/>
+              <a:t>và lương</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.10527952888407284"/>
+          <c:y val="1.8765579494393229E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.0779885812945125E-2"/>
+                  <c:y val="8.3850864374113751E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="65000"/>
+                            <a:lumOff val="35000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="800" baseline="0"/>
+                      <a:t>y = 1190.</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="vi-VN" sz="800" baseline="0"/>
+                      <a:t>6n</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="800" baseline="0"/>
+                      <a:t> + 44747</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US" sz="800"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'gestation (2)'!$B$2:$B$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'gestation (2)'!$C$2:$C$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>51876</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>54511</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>53425</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>61683</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>52926</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>47034</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>66432</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>61100</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>41934</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>47454</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>49832</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>47047</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>39115</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>59677</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>61458</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>54528</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>60327</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>56600</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>52542</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>50455</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-28B5-42F0-88A8-A0B77022B6AA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="361260624"/>
+        <c:axId val="361262704"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="361260624"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="vi-VN"/>
+                  <a:t>Bài báo đã công bố</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="361262704"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="361262704"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="vi-VN"/>
+                  <a:t>Lương</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="361260624"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1114,6 +1774,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -1631,6 +2331,522 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2230,8 +3446,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="4307047" y="3439489"/>
-          <a:ext cx="4658823" cy="3482080"/>
+          <a:off x="4291034" y="3479778"/>
+          <a:ext cx="4626989" cy="3527109"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2281,6 +3497,49 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>8071</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>186735</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C8EBCFD-7FE5-4FD0-8CA6-BE69232C187F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2954,13 +4213,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{632B92B6-0A42-4CDD-8910-EB7B02A5F5D0}">
   <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="103" zoomScaleNormal="103" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39:F39"/>
+    <sheetView zoomScale="103" zoomScaleNormal="103" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="30.77734375" customWidth="1"/>
+    <col min="2" max="3" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:3" x14ac:dyDescent="0.3">
@@ -3250,7 +4510,7 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="B36">
         <f>B35/B34</f>
@@ -3259,7 +4519,7 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="B37">
         <f>C22-B36*B22</f>
@@ -3330,6 +4590,311 @@
     <mergeCell ref="E39:F39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42979E8A-100F-4ABD-AB2A-E609C7BD82A6}">
+  <dimension ref="A1:C33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.109375" customWidth="1"/>
+    <col min="2" max="2" width="19.21875" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B2">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <v>51876</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B3">
+        <v>6</v>
+      </c>
+      <c r="C3">
+        <v>54511</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>53425</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B5">
+        <v>8</v>
+      </c>
+      <c r="C5">
+        <v>61683</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B6">
+        <v>9</v>
+      </c>
+      <c r="C6">
+        <v>52926</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>47034</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B8">
+        <v>16</v>
+      </c>
+      <c r="C8">
+        <v>66432</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B9">
+        <v>10</v>
+      </c>
+      <c r="C9">
+        <v>61100</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10">
+        <v>41934</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B11">
+        <v>5</v>
+      </c>
+      <c r="C11">
+        <v>47454</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B12">
+        <v>5</v>
+      </c>
+      <c r="C12">
+        <v>49832</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B13">
+        <v>6</v>
+      </c>
+      <c r="C13">
+        <v>47047</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B14">
+        <v>7</v>
+      </c>
+      <c r="C14">
+        <v>39115</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B15">
+        <v>11</v>
+      </c>
+      <c r="C15">
+        <v>59677</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B16">
+        <v>18</v>
+      </c>
+      <c r="C16">
+        <v>61458</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B17">
+        <v>6</v>
+      </c>
+      <c r="C17">
+        <v>54528</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B18">
+        <v>9</v>
+      </c>
+      <c r="C18">
+        <v>60327</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B19">
+        <v>7</v>
+      </c>
+      <c r="C19">
+        <v>56600</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B20">
+        <v>7</v>
+      </c>
+      <c r="C20">
+        <v>52542</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B21">
+        <v>3</v>
+      </c>
+      <c r="C21">
+        <v>50455</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>2</v>
+      </c>
+      <c r="B24">
+        <f>COUNT(B2:B22)</f>
+        <v>20</v>
+      </c>
+      <c r="C24">
+        <f>COUNT(C2:C22)</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25">
+        <f>AVERAGE(B2:B21)</f>
+        <v>7.35</v>
+      </c>
+      <c r="C25">
+        <f>AVERAGE(C2:C21)</f>
+        <v>53497.8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" cm="1">
+        <f t="array" ref="B26">SUM((B$2:B$21 - B$25)^2)/(B24 - 1)</f>
+        <v>16.765789473684212</v>
+      </c>
+      <c r="C26" cm="1">
+        <f t="array" ref="C26">SUM((C$2:C$21 - C$25)^2)/(C24 - 1)</f>
+        <v>49424289.221052639</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27">
+        <f>SQRT(B26)</f>
+        <v>4.0946049227836632</v>
+      </c>
+      <c r="C27">
+        <f>SQRT(C26)</f>
+        <v>7030.2410499962689</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28" cm="1">
+        <f t="array" ref="B28">SUM(($B$2:$B$21 - $B$25)*($C$2:$C$21 - $C$25))/(B24-1)</f>
+        <v>19960.652631578942</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29">
+        <f>B28/(B27*C27)</f>
+        <v>0.69341385729245297</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>11</v>
+      </c>
+      <c r="B30">
+        <f>B26*(B24-1)</f>
+        <v>318.55</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>12</v>
+      </c>
+      <c r="B31">
+        <f>B28*(B24-1)</f>
+        <v>379252.39999999991</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <f>B31/B30</f>
+        <v>1190.5584680583893</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>30</v>
+      </c>
+      <c r="B33">
+        <f>C25-B32*B25</f>
+        <v>44747.195259770844</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>